--- a/biology/Médecine/Néoplasie/Néoplasie.xlsx
+++ b/biology/Médecine/Néoplasie/Néoplasie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9oplasie</t>
+          <t>Néoplasie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme néoplasie (littéralement : nouvelle croissance) désigne une formation nouvelle — le néoplasme — qui se développe par prolifération cellulaire et qui présente une organisation structurale et une coordination fonctionnelle faible, voire nulle, avec le tissu environnant. Le mot « néoplasme » est le terme utilisé en médecine pour désigner une tumeur ou un cancer.
-Un journal scientifique consacré à la recherche oncologique porte le nom de Neoplasia[1].
+Un journal scientifique consacré à la recherche oncologique porte le nom de Neoplasia.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9oplasie</t>
+          <t>Néoplasie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Typologies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle forme une masse tissulaire distincte qui peut être :
 soit bénigne, elle est alors le plus souvent d'évolution lente et limitée et peut être traitée par résection ;
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9oplasie</t>
+          <t>Néoplasie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les néoplasies peuvent être dues à des mutations aléatoires (dont dues au vieillissement), des facteurs génétiques, environnementaux (exposition à des produits cancérogènes) ou endocriniens (perturbateurs endocriniens notamment).
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9oplasie</t>
+          <t>Néoplasie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic se fait par :
 l'interrogatoire ;
@@ -583,8 +601,8 @@
 la biologie ;
 la cytogénétique ;
 l'imagerie et l'anatomopathologie.
-Chez les adultes, les dermatomyosites (nécroses cutanées) sont fréquemment (dans 15 à 50 % des cas) associées à une néoplasie[2] (on parle de « dermatomyosite paranéoplasique »). Les dermatomyosites de l'adulte doivent inciter à rechercher un cancer sous-jacent.
-Pour Sorensen et al.[3], les FPI (fièvres prolongées inexpliquées) sont un marqueur de néoplasies occultes.
+Chez les adultes, les dermatomyosites (nécroses cutanées) sont fréquemment (dans 15 à 50 % des cas) associées à une néoplasie (on parle de « dermatomyosite paranéoplasique »). Les dermatomyosites de l'adulte doivent inciter à rechercher un cancer sous-jacent.
+Pour Sorensen et al., les FPI (fièvres prolongées inexpliquées) sont un marqueur de néoplasies occultes.
 </t>
         </is>
       </c>
